--- a/2023年上半年/报名费用.xlsx
+++ b/2023年上半年/报名费用.xlsx
@@ -5,15 +5,17 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记账\2023年上半年\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\2023年上半年\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CE18C63-58CF-4DC5-AA60-DD025F217AE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033C096-CBEA-4B24-8578-70050B6BFDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="支出" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -115,10 +117,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>总金额</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>总人数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -135,7 +133,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>课后服务费用</t>
+    <t>课后服务总费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每班报名总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退三个学生的课后服务</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +149,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -173,8 +182,26 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -187,8 +214,19 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -196,11 +234,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -214,23 +270,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="计算" xfId="1" builtinId="22"/>
   </cellStyles>
   <dxfs count="34">
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -258,51 +311,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -312,6 +320,7 @@
         <sz val="11"/>
         <color theme="8"/>
         <name val="等线"/>
+        <family val="3"/>
         <charset val="134"/>
         <scheme val="minor"/>
       </font>
@@ -327,6 +336,42 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -339,21 +384,33 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor auto="1"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -394,40 +451,40 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{519E5500-B741-435E-957D-65F7A7D96C28}" name="表1" displayName="表1" ref="A1:P14" totalsRowCount="1" headerRowDxfId="33" dataDxfId="32">
   <autoFilter ref="A1:P13" xr:uid="{519E5500-B741-435E-957D-65F7A7D96C28}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{55721260-7CA3-4A76-A6CD-073E14E80F09}" name="班级" dataDxfId="31" totalsRowDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{8F85BDA8-3790-4AA0-8D5E-139E1087BEE8}" name="校服/元" dataDxfId="30" totalsRowDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{5B044D25-DA9A-4118-8E9B-E191439E3553}" name="作业本/元" dataDxfId="29" totalsRowDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{40D6A53E-7621-49E2-AA2C-07206C1C57A9}" name="课后服务" dataDxfId="28" totalsRowDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{D9B77806-41D1-42E0-8BE7-CF2B521EE166}" name="课练" dataDxfId="27" totalsRowDxfId="11"/>
-    <tableColumn id="12" xr3:uid="{78CECCFC-247B-4995-AF5B-5A30B21C7437}" name="总人数" dataDxfId="26" totalsRowDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{BA70D527-C9BC-4CC9-AE1F-EAAA2ABAA1EA}" name="不参加课后服务人数" dataDxfId="25" totalsRowDxfId="9"/>
-    <tableColumn id="15" xr3:uid="{586CD1BC-0DD9-47F1-BC64-FD8852237ED6}" name="不参加课后服务报名费" dataDxfId="24" totalsRowDxfId="8">
+    <tableColumn id="1" xr3:uid="{55721260-7CA3-4A76-A6CD-073E14E80F09}" name="班级" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="2" xr3:uid="{8F85BDA8-3790-4AA0-8D5E-139E1087BEE8}" name="校服/元" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{5B044D25-DA9A-4118-8E9B-E191439E3553}" name="作业本/元" dataDxfId="27" totalsRowDxfId="26"/>
+    <tableColumn id="4" xr3:uid="{40D6A53E-7621-49E2-AA2C-07206C1C57A9}" name="课后服务" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="5" xr3:uid="{D9B77806-41D1-42E0-8BE7-CF2B521EE166}" name="课练" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="16" xr3:uid="{8DDB698D-3272-478C-A2C9-64B90767171C}" name="参加课后服务报名费" dataDxfId="21" totalsRowDxfId="20">
+      <calculatedColumnFormula>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="12" xr3:uid="{78CECCFC-247B-4995-AF5B-5A30B21C7437}" name="总人数" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{3387306D-9D5A-43E2-A76A-CA9C35815248}" name="已报名人数" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{BA70D527-C9BC-4CC9-AE1F-EAAA2ABAA1EA}" name="不参加课后服务人数" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="7" xr3:uid="{7094D711-0849-4391-9CE1-0A4D114EA665}" name="参加课后服务人数" dataDxfId="13" totalsRowDxfId="12">
+      <calculatedColumnFormula>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="15" xr3:uid="{586CD1BC-0DD9-47F1-BC64-FD8852237ED6}" name="不参加课后服务报名费" dataDxfId="11" totalsRowDxfId="10">
       <calculatedColumnFormula>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{7094D711-0849-4391-9CE1-0A4D114EA665}" name="参加课后服务人数" dataDxfId="23" totalsRowDxfId="7">
-      <calculatedColumnFormula>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</calculatedColumnFormula>
+    <tableColumn id="14" xr3:uid="{11E4ACFE-9CD0-49DE-8043-3D51810F6DAB}" name="课后服务总费用" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+      <calculatedColumnFormula>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(表1[课后服务总费用])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="16" xr3:uid="{8DDB698D-3272-478C-A2C9-64B90767171C}" name="参加课后服务报名费" dataDxfId="22" totalsRowDxfId="6">
-      <calculatedColumnFormula>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</calculatedColumnFormula>
+    <tableColumn id="11" xr3:uid="{5F5062DF-0102-4C10-8B4E-FBE140D705F4}" name="每班报名总金额" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+      <calculatedColumnFormula>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</calculatedColumnFormula>
+      <totalsRowFormula>SUM(表1[每班报名总金额])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{3387306D-9D5A-43E2-A76A-CA9C35815248}" name="已报名人数" dataDxfId="21" totalsRowDxfId="5"/>
-    <tableColumn id="8" xr3:uid="{7789C419-C13D-498B-AFCF-AB74AE6CC050}" name="现金" totalsRowFunction="custom" dataDxfId="20" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{7789C419-C13D-498B-AFCF-AB74AE6CC050}" name="现金" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
       <totalsRowFormula>SUM(表1[现金])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E743E2FB-1433-4C78-BD63-CE01DDD5147B}" name="微信" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="3">
+    <tableColumn id="9" xr3:uid="{E743E2FB-1433-4C78-BD63-CE01DDD5147B}" name="微信" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
       <totalsRowFormula>SUM(表1[微信])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5F5062DF-0102-4C10-8B4E-FBE140D705F4}" name="总金额" totalsRowFunction="custom" dataDxfId="18" totalsRowDxfId="2">
-      <calculatedColumnFormula>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(表1[总金额])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="10" xr3:uid="{BD7F0A54-0086-4C7F-98FD-CAA52E8621EE}" name="是否相符" totalsRowFunction="custom" dataDxfId="17" totalsRowDxfId="1">
+    <tableColumn id="10" xr3:uid="{BD7F0A54-0086-4C7F-98FD-CAA52E8621EE}" name="是否相符" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
       <calculatedColumnFormula>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(表1[是否相符])</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="14" xr3:uid="{11E4ACFE-9CD0-49DE-8043-3D51810F6DAB}" name="课后服务费用" totalsRowFunction="custom" dataDxfId="16" totalsRowDxfId="0">
-      <calculatedColumnFormula>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</calculatedColumnFormula>
-      <totalsRowFormula>SUM(表1[课后服务费用])</totalsRowFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -697,11 +754,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P14"/>
+  <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L20" sqref="L20"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -711,21 +768,30 @@
     <col min="3" max="3" width="13.4140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="22.4140625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="20.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.4140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="16.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.6640625" style="1"/>
+    <col min="6" max="6" width="22.4140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.58203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="22.4140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.4140625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="18.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="9" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.4140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.4140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="9" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.6640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -742,41 +808,45 @@
         <v>19</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>26</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>24</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="S1" s="1"/>
+      <c r="V1" s="1"/>
+      <c r="X1" s="1"/>
+      <c r="Z1" s="1"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1">
@@ -792,210 +862,240 @@
         <v>0</v>
       </c>
       <c r="F2" s="1">
+        <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
+        <v>422</v>
+      </c>
+      <c r="G2" s="1">
         <v>30</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
+        <f>27+3</f>
+        <v>30</v>
+      </c>
+      <c r="I2" s="1">
         <v>0</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
+        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
+        <v>30</v>
+      </c>
+      <c r="K2" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</f>
         <v>72</v>
       </c>
-      <c r="I2" s="1">
-        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
-        <v>27</v>
-      </c>
-      <c r="J2" s="1">
+      <c r="L2" s="1">
+        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
+        <v>10500</v>
+      </c>
+      <c r="M2" s="1">
+        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
+        <v>12660</v>
+      </c>
+      <c r="N2" s="1">
+        <f>2110+425</f>
+        <v>2535</v>
+      </c>
+      <c r="O2" s="3">
+        <f>9284+841</f>
+        <v>10125</v>
+      </c>
+      <c r="P2" s="1">
+        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
+        <v>12660</v>
+      </c>
+      <c r="S2" s="1"/>
+      <c r="V2" s="1"/>
+      <c r="X2" s="1"/>
+      <c r="Z2" s="1"/>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1">
+        <v>62</v>
+      </c>
+      <c r="C3" s="1">
+        <v>10</v>
+      </c>
+      <c r="D3" s="1">
+        <v>350</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="F3" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
         <v>422</v>
       </c>
-      <c r="K2" s="1">
-        <v>27</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2110</v>
-      </c>
-      <c r="M2" s="3">
-        <v>9284</v>
-      </c>
-      <c r="N2" s="1">
-        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
-        <v>11394</v>
-      </c>
-      <c r="O2" s="1">
-        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
-        <v>11394</v>
-      </c>
-      <c r="P2" s="1">
-        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
-        <v>9450</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1">
-        <v>62</v>
-      </c>
-      <c r="C3" s="1">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1">
-        <v>350</v>
-      </c>
-      <c r="E3" s="1">
+      <c r="G3" s="1">
+        <v>29</v>
+      </c>
+      <c r="H3" s="1">
+        <v>29</v>
+      </c>
+      <c r="I3" s="1">
         <v>0</v>
       </c>
-      <c r="F3" s="1">
+      <c r="J3" s="1">
+        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
         <v>29</v>
       </c>
-      <c r="G3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
+      <c r="K3" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</f>
         <v>72</v>
       </c>
-      <c r="I3" s="1">
-        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
+      <c r="L3" s="1">
+        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
+        <v>10150</v>
+      </c>
+      <c r="M3" s="1">
+        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
+        <v>12238</v>
+      </c>
+      <c r="N3" s="1">
+        <v>5600</v>
+      </c>
+      <c r="O3" s="3">
+        <f>6638</f>
+        <v>6638</v>
+      </c>
+      <c r="P3" s="1">
+        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
+        <v>12238</v>
+      </c>
+      <c r="S3" s="1"/>
+      <c r="V3" s="1"/>
+      <c r="X3" s="1"/>
+      <c r="Z3" s="1"/>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1">
+        <v>62</v>
+      </c>
+      <c r="C4" s="1">
+        <v>10</v>
+      </c>
+      <c r="D4" s="1">
+        <v>350</v>
+      </c>
+      <c r="E4" s="1">
         <v>0</v>
       </c>
-      <c r="J3" s="1">
+      <c r="F4" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
         <v>422</v>
       </c>
-      <c r="M3" s="3"/>
-      <c r="N3" s="1">
-        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
-        <v>0</v>
-      </c>
-      <c r="O3" s="1">
-        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
-        <v>0</v>
-      </c>
-      <c r="P3" s="1">
-        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="5">
-        <v>62</v>
-      </c>
-      <c r="C4" s="5">
-        <v>10</v>
-      </c>
-      <c r="D4" s="5">
-        <v>350</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="G4" s="1">
+        <v>31</v>
+      </c>
+      <c r="H4" s="2">
+        <f>30+1</f>
+        <v>31</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
         <v>30</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
+      <c r="K4" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</f>
         <v>72</v>
       </c>
-      <c r="I4" s="5">
-        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
-        <v>29</v>
-      </c>
-      <c r="J4" s="5">
+      <c r="L4" s="1">
+        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
+        <v>10500</v>
+      </c>
+      <c r="M4" s="1">
+        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
+        <v>12732</v>
+      </c>
+      <c r="N4" s="1">
+        <v>450</v>
+      </c>
+      <c r="O4" s="3">
+        <f>11438+422*2</f>
+        <v>12282</v>
+      </c>
+      <c r="P4" s="1">
+        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
+        <v>12732</v>
+      </c>
+      <c r="S4" s="1"/>
+      <c r="V4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Z4" s="1"/>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>62</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1">
+        <v>350</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
         <v>422</v>
       </c>
-      <c r="K4" s="6">
-        <v>30</v>
-      </c>
-      <c r="L4" s="5">
-        <v>450</v>
-      </c>
-      <c r="M4" s="7">
-        <f>11438+422</f>
-        <v>11860</v>
-      </c>
-      <c r="N4" s="5">
-        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
-        <v>12310</v>
-      </c>
-      <c r="O4" s="5">
-        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
-        <v>12310</v>
-      </c>
-      <c r="P4" s="5">
-        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
-        <v>10150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="1">
-        <v>62</v>
-      </c>
-      <c r="C5" s="1">
-        <v>10</v>
-      </c>
-      <c r="D5" s="1">
-        <v>350</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1">
+        <f>27+1+1</f>
+        <v>29</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
         <v>28</v>
       </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
+      <c r="K5" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</f>
         <v>72</v>
       </c>
-      <c r="I5" s="1">
-        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
-        <v>27</v>
-      </c>
-      <c r="J5" s="1">
-        <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
-        <v>422</v>
-      </c>
-      <c r="K5" s="1">
-        <v>27</v>
-      </c>
       <c r="L5" s="1">
-        <f>8*422</f>
-        <v>3376</v>
-      </c>
-      <c r="M5" s="3">
-        <f>422*19</f>
-        <v>8018</v>
+        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
+        <v>9800</v>
+      </c>
+      <c r="M5" s="1">
+        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
+        <v>11888</v>
       </c>
       <c r="N5" s="1">
-        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
-        <v>11394</v>
-      </c>
-      <c r="O5" s="1">
+        <f>8*422+72</f>
+        <v>3448</v>
+      </c>
+      <c r="O5" s="3">
+        <f>422*20</f>
+        <v>8440</v>
+      </c>
+      <c r="P5" s="1">
         <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
-        <v>11394</v>
-      </c>
-      <c r="P5" s="1">
-        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
-        <v>9450</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+        <v>11888</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Z5" s="1"/>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -1011,103 +1111,115 @@
         <v>38</v>
       </c>
       <c r="F6" s="1">
+        <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
+        <v>460</v>
+      </c>
+      <c r="G6" s="1">
         <v>40</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
+        <f>36+4</f>
+        <v>40</v>
+      </c>
+      <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
+        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
+        <v>39</v>
+      </c>
+      <c r="K6" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</f>
         <v>110</v>
       </c>
-      <c r="I6" s="1">
-        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
-        <v>35</v>
-      </c>
-      <c r="J6" s="1">
+      <c r="L6" s="1">
+        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
+        <v>13650</v>
+      </c>
+      <c r="M6" s="1">
+        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
+        <v>18050</v>
+      </c>
+      <c r="N6" s="1">
+        <v>570</v>
+      </c>
+      <c r="O6" s="3">
+        <f>15640+460*4</f>
+        <v>17480</v>
+      </c>
+      <c r="P6" s="1">
+        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
+        <v>18050</v>
+      </c>
+      <c r="S6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Z6" s="1"/>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="1">
+        <v>62</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10</v>
+      </c>
+      <c r="D7" s="1">
+        <v>350</v>
+      </c>
+      <c r="E7" s="1">
+        <v>38</v>
+      </c>
+      <c r="F7" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
         <v>460</v>
       </c>
-      <c r="K6" s="1">
-        <v>36</v>
-      </c>
-      <c r="L6" s="1">
-        <v>570</v>
-      </c>
-      <c r="M6" s="3">
-        <v>15640</v>
-      </c>
-      <c r="N6" s="1">
-        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
-        <v>16210</v>
-      </c>
-      <c r="O6" s="1">
-        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
-        <v>16210</v>
-      </c>
-      <c r="P6" s="1">
-        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
-        <v>12250</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="1">
-        <v>62</v>
-      </c>
-      <c r="C7" s="1">
-        <v>10</v>
-      </c>
-      <c r="D7" s="1">
-        <v>350</v>
-      </c>
-      <c r="E7" s="1">
-        <v>38</v>
-      </c>
-      <c r="F7" s="1">
+      <c r="G7" s="1">
         <v>40</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
+        <f>39+1</f>
+        <v>40</v>
+      </c>
+      <c r="I7" s="1">
         <v>0</v>
       </c>
-      <c r="H7" s="1">
+      <c r="J7" s="1">
+        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
+        <v>40</v>
+      </c>
+      <c r="K7" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</f>
         <v>110</v>
       </c>
-      <c r="I7" s="1">
-        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
-        <v>39</v>
-      </c>
-      <c r="J7" s="1">
-        <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
-        <v>460</v>
-      </c>
-      <c r="K7" s="1">
-        <v>39</v>
-      </c>
       <c r="L7" s="1">
+        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
+        <v>14000</v>
+      </c>
+      <c r="M7" s="1">
+        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
+        <v>18400</v>
+      </c>
+      <c r="N7" s="1">
         <v>3160</v>
       </c>
-      <c r="M7" s="3">
-        <v>14780</v>
-      </c>
-      <c r="N7" s="1">
-        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
-        <v>17940</v>
-      </c>
-      <c r="O7" s="1">
+      <c r="O7" s="3">
+        <f>14780+460</f>
+        <v>15240</v>
+      </c>
+      <c r="P7" s="1">
         <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
-        <v>17940</v>
-      </c>
-      <c r="P7" s="1">
-        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
-        <v>13650</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+        <v>18400</v>
+      </c>
+      <c r="S7" s="1"/>
+      <c r="V7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Z7" s="1"/>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
       <c r="B8" s="1">
@@ -1123,334 +1235,386 @@
         <v>38</v>
       </c>
       <c r="F8" s="1">
+        <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
+        <v>463</v>
+      </c>
+      <c r="G8" s="1">
         <v>38</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
       <c r="H8" s="1">
+        <f>31+7</f>
+        <v>38</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
+        <v>37</v>
+      </c>
+      <c r="K8" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</f>
         <v>113</v>
       </c>
-      <c r="I8" s="1">
-        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
-        <v>31</v>
-      </c>
-      <c r="J8" s="1">
+      <c r="L8" s="1">
+        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
+        <v>12950</v>
+      </c>
+      <c r="M8" s="1">
+        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
+        <v>17244</v>
+      </c>
+      <c r="N8" s="1">
+        <f>2353+400</f>
+        <v>2753</v>
+      </c>
+      <c r="O8" s="3">
+        <f>12000+2491</f>
+        <v>14491</v>
+      </c>
+      <c r="P8" s="1">
+        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
+        <v>17244</v>
+      </c>
+      <c r="S8" s="1"/>
+      <c r="V8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Z8" s="1"/>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="1">
+        <v>65</v>
+      </c>
+      <c r="C9" s="1">
+        <v>10</v>
+      </c>
+      <c r="D9" s="1">
+        <v>350</v>
+      </c>
+      <c r="E9" s="1">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
         <v>463</v>
       </c>
-      <c r="K8" s="1">
-        <v>31</v>
-      </c>
-      <c r="L8" s="1">
-        <v>2353</v>
-      </c>
-      <c r="M8" s="3">
-        <v>12000</v>
-      </c>
-      <c r="N8" s="1">
-        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
-        <v>14353</v>
-      </c>
-      <c r="O8" s="1">
-        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
-        <v>14353</v>
-      </c>
-      <c r="P8" s="1">
-        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
-        <v>10850</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9" s="1">
-        <v>65</v>
-      </c>
-      <c r="C9" s="1">
-        <v>10</v>
-      </c>
-      <c r="D9" s="1">
-        <v>350</v>
-      </c>
-      <c r="E9" s="1">
-        <v>38</v>
-      </c>
       <c r="G9" s="1">
+        <v>34</v>
+      </c>
+      <c r="H9" s="1">
+        <v>34</v>
+      </c>
+      <c r="I9" s="1">
         <v>0</v>
       </c>
-      <c r="H9" s="1">
+      <c r="J9" s="1">
+        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
+        <v>34</v>
+      </c>
+      <c r="K9" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</f>
         <v>113</v>
       </c>
-      <c r="I9" s="1">
-        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
-        <v>463</v>
-      </c>
-      <c r="M9" s="3"/>
+      <c r="L9" s="1">
+        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
+        <v>11900</v>
+      </c>
+      <c r="M9" s="1">
+        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
+        <v>15742</v>
+      </c>
       <c r="N9" s="1">
-        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
-        <v>0</v>
-      </c>
-      <c r="O9" s="1">
+        <v>1000</v>
+      </c>
+      <c r="O9" s="3">
+        <v>14742</v>
+      </c>
+      <c r="P9" s="1">
         <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="1">
-        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>15742</v>
+      </c>
+      <c r="S9" s="1"/>
+      <c r="V9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Z9" s="1"/>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="1">
         <v>65</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C10" s="1">
         <v>10</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="1">
         <v>350</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="1">
         <v>49</v>
       </c>
-      <c r="F10" s="5">
+      <c r="F10" s="1">
+        <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
+        <v>474</v>
+      </c>
+      <c r="G10" s="1">
         <v>40</v>
       </c>
-      <c r="G10" s="5">
+      <c r="H10" s="1">
+        <f>39+1</f>
+        <v>40</v>
+      </c>
+      <c r="I10" s="1">
         <v>0</v>
       </c>
-      <c r="H10" s="5">
+      <c r="J10" s="1">
+        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
+        <v>40</v>
+      </c>
+      <c r="K10" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</f>
         <v>124</v>
       </c>
-      <c r="I10" s="5">
-        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
-        <v>40</v>
-      </c>
-      <c r="J10" s="5">
+      <c r="L10" s="1">
+        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
+        <v>14000</v>
+      </c>
+      <c r="M10" s="1">
+        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
+        <v>18960</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1819</v>
+      </c>
+      <c r="O10" s="3">
+        <f>16667+474</f>
+        <v>17141</v>
+      </c>
+      <c r="P10" s="1">
+        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
+        <v>18960</v>
+      </c>
+      <c r="S10" s="1"/>
+      <c r="V10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Z10" s="1"/>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="1">
+        <v>65</v>
+      </c>
+      <c r="C11" s="1">
+        <v>10</v>
+      </c>
+      <c r="D11" s="1">
+        <v>350</v>
+      </c>
+      <c r="E11" s="1">
+        <v>49</v>
+      </c>
+      <c r="F11" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
         <v>474</v>
       </c>
-      <c r="K10" s="5">
-        <f>39+1</f>
-        <v>40</v>
-      </c>
-      <c r="L10" s="5">
-        <v>1819</v>
-      </c>
-      <c r="M10" s="7">
-        <f>16667+474</f>
-        <v>17141</v>
-      </c>
-      <c r="N10" s="5">
-        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
-        <v>18960</v>
-      </c>
-      <c r="O10" s="5">
-        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
-        <v>18960</v>
-      </c>
-      <c r="P10" s="5">
-        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
-        <v>14000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11" s="5">
-        <v>65</v>
-      </c>
-      <c r="C11" s="5">
-        <v>10</v>
-      </c>
-      <c r="D11" s="5">
-        <v>350</v>
-      </c>
-      <c r="E11" s="5">
-        <v>49</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="G11" s="1">
         <v>43</v>
       </c>
-      <c r="G11" s="5">
+      <c r="H11" s="1">
+        <f>30+13</f>
+        <v>43</v>
+      </c>
+      <c r="I11" s="1">
         <v>0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="J11" s="1">
+        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
+        <v>43</v>
+      </c>
+      <c r="K11" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</f>
         <v>124</v>
       </c>
-      <c r="I11" s="5">
-        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
-        <v>30</v>
-      </c>
-      <c r="J11" s="5">
-        <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
-        <v>474</v>
-      </c>
-      <c r="K11" s="5">
-        <v>30</v>
-      </c>
-      <c r="M11" s="7">
+      <c r="L11" s="1">
+        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
+        <v>15050</v>
+      </c>
+      <c r="M11" s="1">
+        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
+        <v>20382</v>
+      </c>
+      <c r="N11" s="1">
+        <f>13*474</f>
+        <v>6162</v>
+      </c>
+      <c r="O11" s="3">
         <v>14220</v>
       </c>
-      <c r="N11" s="5">
-        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
-        <v>14220</v>
-      </c>
-      <c r="O11" s="5">
+      <c r="P11" s="1">
         <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
-        <v>14220</v>
-      </c>
-      <c r="P11" s="5">
-        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
-        <v>10500</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
+        <v>20382</v>
+      </c>
+      <c r="S11" s="1"/>
+      <c r="V11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Z11" s="1"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="1">
         <v>65</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="5">
+      <c r="D12" s="1">
         <v>350</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="1">
         <v>33</v>
       </c>
-      <c r="F12" s="5">
+      <c r="F12" s="1">
+        <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
+        <v>458</v>
+      </c>
+      <c r="G12" s="1">
         <v>42</v>
       </c>
-      <c r="G12" s="5">
+      <c r="H12" s="1">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1">
         <v>0</v>
       </c>
-      <c r="H12" s="5">
+      <c r="J12" s="1">
+        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
+        <v>42</v>
+      </c>
+      <c r="K12" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</f>
         <v>108</v>
       </c>
-      <c r="I12" s="5">
-        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
-        <v>42</v>
-      </c>
-      <c r="J12" s="5">
+      <c r="L12" s="1">
+        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
+        <v>14700</v>
+      </c>
+      <c r="M12" s="1">
+        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
+        <v>19236</v>
+      </c>
+      <c r="N12" s="1">
+        <v>0</v>
+      </c>
+      <c r="O12" s="3">
+        <v>19236</v>
+      </c>
+      <c r="P12" s="1">
+        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
+        <v>19236</v>
+      </c>
+      <c r="S12" s="1"/>
+      <c r="V12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Z12" s="1"/>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="1">
+        <v>65</v>
+      </c>
+      <c r="C13" s="1">
+        <v>10</v>
+      </c>
+      <c r="D13" s="1">
+        <v>350</v>
+      </c>
+      <c r="E13" s="1">
+        <v>33</v>
+      </c>
+      <c r="F13" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
         <v>458</v>
       </c>
-      <c r="K12" s="5">
-        <v>42</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="G13" s="1">
+        <v>41</v>
+      </c>
+      <c r="H13" s="1">
+        <v>41</v>
+      </c>
+      <c r="I13" s="1">
         <v>0</v>
       </c>
-      <c r="M12" s="7">
-        <v>19236</v>
-      </c>
-      <c r="N12" s="5">
-        <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
-        <v>19236</v>
-      </c>
-      <c r="O12" s="5">
-        <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
-        <v>19236</v>
-      </c>
-      <c r="P12" s="5">
-        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
-        <v>14700</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="5">
-        <v>65</v>
-      </c>
-      <c r="C13" s="5">
-        <v>10</v>
-      </c>
-      <c r="D13" s="5">
-        <v>350</v>
-      </c>
-      <c r="E13" s="5">
-        <v>33</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="J13" s="1">
+        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
         <v>41</v>
       </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
+      <c r="K13" s="1">
         <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</f>
         <v>108</v>
       </c>
-      <c r="I13" s="5">
-        <f>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</f>
-        <v>41</v>
-      </c>
-      <c r="J13" s="5">
-        <f>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</f>
-        <v>458</v>
-      </c>
-      <c r="K13" s="5">
-        <v>41</v>
-      </c>
-      <c r="L13" s="5">
-        <v>3664</v>
-      </c>
-      <c r="M13" s="7">
-        <v>15114</v>
-      </c>
-      <c r="N13" s="5">
+      <c r="L13" s="1">
+        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
+        <v>14350</v>
+      </c>
+      <c r="M13" s="1">
         <f>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</f>
         <v>18778</v>
       </c>
-      <c r="O13" s="5">
+      <c r="N13" s="1">
+        <v>3664</v>
+      </c>
+      <c r="O13" s="3">
+        <v>15114</v>
+      </c>
+      <c r="P13" s="1">
         <f>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</f>
         <v>18778</v>
       </c>
-      <c r="P13" s="5">
-        <f>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</f>
-        <v>14350</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="S13" s="1"/>
+      <c r="V13" s="1"/>
+      <c r="X13" s="1"/>
+      <c r="Z13" s="1"/>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
       <c r="L14" s="1">
+        <f>SUM(表1[课后服务总费用])</f>
+        <v>151550</v>
+      </c>
+      <c r="M14" s="1">
+        <f>SUM(表1[每班报名总金额])</f>
+        <v>196310</v>
+      </c>
+      <c r="N14" s="1">
         <f>SUM(表1[现金])</f>
-        <v>17502</v>
-      </c>
-      <c r="M14" s="3">
+        <v>31161</v>
+      </c>
+      <c r="O14" s="3">
         <f>SUM(表1[微信])</f>
-        <v>137293</v>
-      </c>
-      <c r="N14" s="1">
-        <f>SUM(表1[总金额])</f>
-        <v>154795</v>
-      </c>
-      <c r="O14" s="1">
+        <v>165149</v>
+      </c>
+      <c r="P14" s="1">
         <f>SUM(表1[是否相符])</f>
-        <v>154795</v>
-      </c>
-      <c r="P14" s="1">
-        <f>SUM(表1[课后服务费用])</f>
-        <v>119350</v>
-      </c>
+        <v>196310</v>
+      </c>
+      <c r="S14" s="1"/>
+      <c r="V14" s="1"/>
+      <c r="X14" s="1"/>
+      <c r="Z14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1460,4 +1624,82 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA42940C-E7A0-444A-B728-264E4F1B710C}">
+  <dimension ref="A1:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="7">
+        <f>表1[[#Totals],[每班报名总金额]]</f>
+        <v>196310</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="5">
+        <v>4231.3999999999996</v>
+      </c>
+      <c r="C2" s="7">
+        <f>153241+6831+17844+13400+2107-A4</f>
+        <v>1966.3299999999872</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="6">
+        <v>621.92999999999995</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <f>A1-A2-A3</f>
+        <v>191456.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2FA3F6-F994-4369-85A8-BC0464BC520A}">
+  <dimension ref="A1:C1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="8">
+        <v>44971</v>
+      </c>
+      <c r="B1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C1">
+        <v>1050</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/2023年上半年/报名费用.xlsx
+++ b/2023年上半年/报名费用.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Desktop\芒海小学\记帐\2023年上半年\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0033C096-CBEA-4B24-8578-70050B6BFDC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7BB71A20-C57E-469B-B3A3-E12084D9CF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="芒海小学" sheetId="1" r:id="rId1"/>
+    <sheet name="港头小学" sheetId="4" r:id="rId2"/>
     <sheet name="支出" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,33 @@
   </si>
   <si>
     <t>退三个学生的课后服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港头小学作业本、校服费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>港头小学课后服务费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>列1</t>
+  </si>
+  <si>
+    <t>总费用</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -150,9 +177,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -183,25 +210,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -216,17 +233,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -234,29 +245,14 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -270,20 +266,37 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="4" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="计算" xfId="1" builtinId="22"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="40">
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="176" formatCode="&quot;¥&quot;#,##0.00_);[Red]\(&quot;¥&quot;#,##0.00\)"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -448,43 +461,58 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{519E5500-B741-435E-957D-65F7A7D96C28}" name="表1" displayName="表1" ref="A1:P14" totalsRowCount="1" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{519E5500-B741-435E-957D-65F7A7D96C28}" name="表1" displayName="表1" ref="A1:P14" totalsRowCount="1" headerRowDxfId="39" dataDxfId="38">
   <autoFilter ref="A1:P13" xr:uid="{519E5500-B741-435E-957D-65F7A7D96C28}"/>
   <tableColumns count="16">
-    <tableColumn id="1" xr3:uid="{55721260-7CA3-4A76-A6CD-073E14E80F09}" name="班级" dataDxfId="31" totalsRowDxfId="30"/>
-    <tableColumn id="2" xr3:uid="{8F85BDA8-3790-4AA0-8D5E-139E1087BEE8}" name="校服/元" dataDxfId="29" totalsRowDxfId="28"/>
-    <tableColumn id="3" xr3:uid="{5B044D25-DA9A-4118-8E9B-E191439E3553}" name="作业本/元" dataDxfId="27" totalsRowDxfId="26"/>
-    <tableColumn id="4" xr3:uid="{40D6A53E-7621-49E2-AA2C-07206C1C57A9}" name="课后服务" dataDxfId="25" totalsRowDxfId="24"/>
-    <tableColumn id="5" xr3:uid="{D9B77806-41D1-42E0-8BE7-CF2B521EE166}" name="课练" dataDxfId="23" totalsRowDxfId="22"/>
-    <tableColumn id="16" xr3:uid="{8DDB698D-3272-478C-A2C9-64B90767171C}" name="参加课后服务报名费" dataDxfId="21" totalsRowDxfId="20">
+    <tableColumn id="1" xr3:uid="{55721260-7CA3-4A76-A6CD-073E14E80F09}" name="班级" dataDxfId="37" totalsRowDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{8F85BDA8-3790-4AA0-8D5E-139E1087BEE8}" name="校服/元" dataDxfId="35" totalsRowDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{5B044D25-DA9A-4118-8E9B-E191439E3553}" name="作业本/元" dataDxfId="33" totalsRowDxfId="32"/>
+    <tableColumn id="4" xr3:uid="{40D6A53E-7621-49E2-AA2C-07206C1C57A9}" name="课后服务" dataDxfId="31" totalsRowDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{D9B77806-41D1-42E0-8BE7-CF2B521EE166}" name="课练" dataDxfId="29" totalsRowDxfId="28"/>
+    <tableColumn id="16" xr3:uid="{8DDB698D-3272-478C-A2C9-64B90767171C}" name="参加课后服务报名费" dataDxfId="27" totalsRowDxfId="26">
       <calculatedColumnFormula>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课后服务]]+表1[[#This Row],[课练]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="12" xr3:uid="{78CECCFC-247B-4995-AF5B-5A30B21C7437}" name="总人数" dataDxfId="19" totalsRowDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{3387306D-9D5A-43E2-A76A-CA9C35815248}" name="已报名人数" dataDxfId="17" totalsRowDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{BA70D527-C9BC-4CC9-AE1F-EAAA2ABAA1EA}" name="不参加课后服务人数" dataDxfId="15" totalsRowDxfId="14"/>
-    <tableColumn id="7" xr3:uid="{7094D711-0849-4391-9CE1-0A4D114EA665}" name="参加课后服务人数" dataDxfId="13" totalsRowDxfId="12">
+    <tableColumn id="12" xr3:uid="{78CECCFC-247B-4995-AF5B-5A30B21C7437}" name="总人数" dataDxfId="25" totalsRowDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{3387306D-9D5A-43E2-A76A-CA9C35815248}" name="已报名人数" dataDxfId="23" totalsRowDxfId="22"/>
+    <tableColumn id="6" xr3:uid="{BA70D527-C9BC-4CC9-AE1F-EAAA2ABAA1EA}" name="不参加课后服务人数" dataDxfId="21" totalsRowDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{7094D711-0849-4391-9CE1-0A4D114EA665}" name="参加课后服务人数" dataDxfId="19" totalsRowDxfId="18">
       <calculatedColumnFormula>表1[[#This Row],[已报名人数]]-表1[[#This Row],[不参加课后服务人数]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="15" xr3:uid="{586CD1BC-0DD9-47F1-BC64-FD8852237ED6}" name="不参加课后服务报名费" dataDxfId="11" totalsRowDxfId="10">
+    <tableColumn id="15" xr3:uid="{586CD1BC-0DD9-47F1-BC64-FD8852237ED6}" name="不参加课后服务报名费" dataDxfId="17" totalsRowDxfId="16">
       <calculatedColumnFormula>表1[[#This Row],[校服/元]]+表1[[#This Row],[作业本/元]]+表1[[#This Row],[课练]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{11E4ACFE-9CD0-49DE-8043-3D51810F6DAB}" name="课后服务总费用" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
+    <tableColumn id="14" xr3:uid="{11E4ACFE-9CD0-49DE-8043-3D51810F6DAB}" name="课后服务总费用" totalsRowFunction="custom" dataDxfId="15" totalsRowDxfId="14">
       <calculatedColumnFormula>表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[课后服务]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(表1[课后服务总费用])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="11" xr3:uid="{5F5062DF-0102-4C10-8B4E-FBE140D705F4}" name="每班报名总金额" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
+    <tableColumn id="11" xr3:uid="{5F5062DF-0102-4C10-8B4E-FBE140D705F4}" name="每班报名总金额" totalsRowFunction="custom" dataDxfId="13" totalsRowDxfId="12">
       <calculatedColumnFormula>表1[[#This Row],[现金]]+表1[[#This Row],[微信]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(表1[每班报名总金额])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{7789C419-C13D-498B-AFCF-AB74AE6CC050}" name="现金" totalsRowFunction="custom" dataDxfId="5" totalsRowDxfId="4">
+    <tableColumn id="8" xr3:uid="{7789C419-C13D-498B-AFCF-AB74AE6CC050}" name="现金" totalsRowFunction="custom" dataDxfId="11" totalsRowDxfId="10">
       <totalsRowFormula>SUM(表1[现金])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{E743E2FB-1433-4C78-BD63-CE01DDD5147B}" name="微信" totalsRowFunction="custom" dataDxfId="3" totalsRowDxfId="2">
+    <tableColumn id="9" xr3:uid="{E743E2FB-1433-4C78-BD63-CE01DDD5147B}" name="微信" totalsRowFunction="custom" dataDxfId="9" totalsRowDxfId="8">
       <totalsRowFormula>SUM(表1[微信])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{BD7F0A54-0086-4C7F-98FD-CAA52E8621EE}" name="是否相符" totalsRowFunction="custom" dataDxfId="1" totalsRowDxfId="0">
+    <tableColumn id="10" xr3:uid="{BD7F0A54-0086-4C7F-98FD-CAA52E8621EE}" name="是否相符" totalsRowFunction="custom" dataDxfId="7" totalsRowDxfId="6">
       <calculatedColumnFormula>表1[[#This Row],[不参加课后服务人数]]*表1[[#This Row],[不参加课后服务报名费]]+表1[[#This Row],[参加课后服务人数]]*表1[[#This Row],[参加课后服务报名费]]</calculatedColumnFormula>
       <totalsRowFormula>SUM(表1[是否相符])</totalsRowFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{10FEFF89-ACDB-4B29-AE54-ACAB5F962987}" name="表2" displayName="表2" ref="A1:D4" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A1:D4" xr:uid="{10FEFF89-ACDB-4B29-AE54-ACAB5F962987}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{CB046EE7-00E8-42B3-987D-0BA93E9B5769}" name="列1" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{B036DC53-4125-4253-A970-DE01936427AF}" name="人数" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{E22B2B6F-837C-48DE-817F-23F02768D188}" name="金额" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{1E05C643-026B-44DC-A73F-02D021BF4AB8}" name="总金额" dataDxfId="0">
+      <calculatedColumnFormula>B2*C2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -756,9 +784,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="1" topLeftCell="K1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="L16" sqref="L16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="L1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1627,48 +1655,82 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CA42940C-E7A0-444A-B728-264E4F1B710C}">
-  <dimension ref="A1:C4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC93D962-96AA-4106-BA76-0AFB2378AF9A}">
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" style="7" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="9" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="7">
-        <f>表1[[#Totals],[每班报名总金额]]</f>
-        <v>196310</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="5">
-        <v>4231.3999999999996</v>
-      </c>
-      <c r="C2" s="7">
-        <f>153241+6831+17844+13400+2107-A4</f>
-        <v>1966.3299999999872</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="6">
-        <v>621.92999999999995</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
-        <f>A1-A2-A3</f>
-        <v>191456.67</v>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" s="1">
+        <v>21</v>
+      </c>
+      <c r="C2" s="5">
+        <v>72</v>
+      </c>
+      <c r="D2" s="5">
+        <f>B2*C2</f>
+        <v>1512</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="1">
+        <v>20</v>
+      </c>
+      <c r="C3" s="5">
+        <v>350</v>
+      </c>
+      <c r="D3" s="5">
+        <f>B3*C3</f>
+        <v>7000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="1"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5">
+        <f>D2+D3</f>
+        <v>8512</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
@@ -1676,8 +1738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2FA3F6-F994-4369-85A8-BC0464BC520A}">
   <dimension ref="A1:C1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1688,13 +1750,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="8">
+      <c r="A1" s="6">
         <v>44971</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="C1">
+      <c r="C1" s="7">
         <v>1050</v>
       </c>
     </row>
